--- a/data/trans_bre/P20D2_R_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20D2_R_2023-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>5.450217612081365</v>
+        <v>5.450217612081342</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1028558591919802</v>
+        <v>0.1028558591919797</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-23.07570786909231</v>
+        <v>-23.93451451683393</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.3433398883591131</v>
+        <v>-0.3498833858680119</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>33.73088946861149</v>
+        <v>31.10712002925856</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.9257563483427661</v>
+        <v>0.8199806323532077</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-56.98590533404009</v>
+        <v>-58.33062458317107</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.699055491169893</v>
+        <v>-0.7051024710302259</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-9.937664985728437</v>
+        <v>-8.128688463471219</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1556679099380705</v>
+        <v>-0.1079590925141978</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-93.01289109473387</v>
+        <v>-92.66074102087596</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.9597241037096447</v>
+        <v>-0.9573538430664386</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-36.52299827400372</v>
+        <v>-37.02673671713459</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-0.5454925710390811</v>
+        <v>-0.4719264098742533</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-31.67277324232095</v>
+        <v>-31.67277324232097</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.4410646501328136</v>
+        <v>-0.4410646501328139</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-46.83813246695282</v>
+        <v>-47.44566857184974</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6149274909360187</v>
+        <v>-0.6083067138143927</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-14.00866128066029</v>
+        <v>-14.50751510138934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2230983727795963</v>
+        <v>-0.2039003407158342</v>
       </c>
     </row>
     <row r="16">
